--- a/how-to/tables.xlsx
+++ b/how-to/tables.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\django\how-to\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/murkaliza/Git/django/how-to/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE0C552-E5FB-48F3-8B1D-B1478E2ABC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543D9B21-F4E7-344B-B372-777FC597768C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{DDAC1375-24C2-44EE-9C01-4C0D3328C2F3}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" activeTab="2" xr2:uid="{DDAC1375-24C2-44EE-9C01-4C0D3328C2F3}"/>
   </bookViews>
   <sheets>
     <sheet name="authors" sheetId="1" r:id="rId1"/>
     <sheet name="books" sheetId="3" r:id="rId2"/>
-    <sheet name="category" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="category" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="138">
   <si>
     <t>authors</t>
   </si>
@@ -408,13 +409,46 @@
   </si>
   <si>
     <t>Ernest</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>editor</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>id_user</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,6 +464,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -459,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -481,9 +523,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -499,9 +544,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -539,7 +584,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -645,7 +690,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -801,29 +846,29 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" style="1" customWidth="1"/>
     <col min="8" max="9" width="9.6640625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="9.109375" style="1"/>
+    <col min="10" max="11" width="9.1640625" style="1"/>
     <col min="12" max="12" width="32.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.88671875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="1"/>
+    <col min="13" max="13" width="11.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -847,7 +892,7 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -867,7 +912,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -887,7 +932,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -907,7 +952,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -927,7 +972,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="4">
         <v>5</v>
       </c>
@@ -956,23 +1001,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49073A0-C4C8-4814-AB53-B0BF9794C59A}">
   <dimension ref="B2:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="8"/>
-    <col min="2" max="2" width="7.5546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="8"/>
+    <col min="2" max="2" width="7.5" style="8" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="38" style="8" customWidth="1"/>
     <col min="5" max="5" width="10" style="8" customWidth="1"/>
     <col min="6" max="6" width="12" style="8" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="8"/>
+    <col min="8" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
@@ -982,7 +1027,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1002,7 +1047,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="7">
         <v>1</v>
       </c>
@@ -1018,7 +1063,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="7">
         <v>2</v>
       </c>
@@ -1034,7 +1079,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="7">
         <v>3</v>
       </c>
@@ -1050,7 +1095,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="7">
         <v>4</v>
       </c>
@@ -1066,7 +1111,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
         <v>5</v>
       </c>
@@ -1082,7 +1127,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
         <v>6</v>
       </c>
@@ -1098,7 +1143,7 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
         <v>7</v>
       </c>
@@ -1114,7 +1159,7 @@
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
         <v>8</v>
       </c>
@@ -1130,7 +1175,7 @@
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
         <v>11</v>
       </c>
@@ -1146,7 +1191,7 @@
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D14" s="7"/>
     </row>
   </sheetData>
@@ -1156,6 +1201,101 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA527BFE-0F78-264C-8F92-B992604727CD}">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="8.1640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="1">
+        <v>100</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="1">
+        <v>101</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EE7BF8-E82A-4AEB-BCDE-1497C60AFA8B}">
   <dimension ref="A7:C38"/>
   <sheetViews>
@@ -1163,14 +1303,14 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.33203125" customWidth="1"/>
-    <col min="2" max="2" width="50.44140625" customWidth="1"/>
-    <col min="3" max="3" width="57.44140625" customWidth="1"/>
+    <col min="2" max="2" width="50.5" customWidth="1"/>
+    <col min="3" max="3" width="57.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1181,7 +1321,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1192,7 +1332,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1203,7 +1343,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1214,7 +1354,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -1225,7 +1365,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1236,7 +1376,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1247,7 +1387,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1258,7 +1398,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1269,7 +1409,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1280,7 +1420,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1291,7 +1431,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1302,7 +1442,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1313,7 +1453,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1324,7 +1464,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1335,7 +1475,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -1346,7 +1486,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -1357,7 +1497,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -1368,7 +1508,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -1379,7 +1519,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1387,7 +1527,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -1395,7 +1535,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1403,52 +1543,52 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>64</v>
       </c>

--- a/how-to/tables.xlsx
+++ b/how-to/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/murkaliza/Git/django/how-to/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\django\how-to\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543D9B21-F4E7-344B-B372-777FC597768C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F3C37B-07AF-4603-BECB-8A5874674821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" activeTab="2" xr2:uid="{DDAC1375-24C2-44EE-9C01-4C0D3328C2F3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{DDAC1375-24C2-44EE-9C01-4C0D3328C2F3}"/>
   </bookViews>
   <sheets>
     <sheet name="authors" sheetId="1" r:id="rId1"/>
@@ -528,7 +528,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -544,9 +544,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -584,7 +584,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -690,7 +690,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -846,29 +846,29 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" style="1" customWidth="1"/>
     <col min="8" max="9" width="9.6640625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="9.1640625" style="1"/>
+    <col min="10" max="11" width="9.109375" style="1"/>
     <col min="12" max="12" width="32.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.83203125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.1640625" style="1"/>
+    <col min="13" max="13" width="11.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.77734375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -892,7 +892,7 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -912,7 +912,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -932,7 +932,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -952,7 +952,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -972,7 +972,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>5</v>
       </c>
@@ -1001,23 +1001,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49073A0-C4C8-4814-AB53-B0BF9794C59A}">
   <dimension ref="B2:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="8"/>
-    <col min="2" max="2" width="7.5" style="8" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="8"/>
+    <col min="2" max="2" width="7.44140625" style="8" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="38" style="8" customWidth="1"/>
     <col min="5" max="5" width="10" style="8" customWidth="1"/>
     <col min="6" max="6" width="12" style="8" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="8"/>
+    <col min="8" max="16384" width="8.77734375" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
@@ -1027,7 +1027,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="7">
         <v>1</v>
       </c>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="7">
         <v>2</v>
       </c>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="7">
         <v>3</v>
       </c>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <v>4</v>
       </c>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <v>5</v>
       </c>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <v>6</v>
       </c>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <v>7</v>
       </c>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
         <v>8</v>
       </c>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
         <v>11</v>
       </c>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D14" s="7"/>
     </row>
   </sheetData>
@@ -1204,20 +1204,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA527BFE-0F78-264C-8F92-B992604727CD}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="8.1640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.77734375" style="1"/>
+    <col min="3" max="3" width="8.109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.77734375" style="1"/>
+    <col min="6" max="6" width="11.44140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1303,14 +1303,14 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.33203125" customWidth="1"/>
-    <col min="2" max="2" width="50.5" customWidth="1"/>
-    <col min="3" max="3" width="57.5" customWidth="1"/>
+    <col min="2" max="2" width="50.44140625" customWidth="1"/>
+    <col min="3" max="3" width="57.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1543,52 +1543,52 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>64</v>
       </c>

--- a/how-to/tables.xlsx
+++ b/how-to/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\django\how-to\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/murkaliza/Git/django/how-to/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F3C37B-07AF-4603-BECB-8A5874674821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6663C750-1894-1D46-ADD4-FE5A8471B992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{DDAC1375-24C2-44EE-9C01-4C0D3328C2F3}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" activeTab="1" xr2:uid="{DDAC1375-24C2-44EE-9C01-4C0D3328C2F3}"/>
   </bookViews>
   <sheets>
     <sheet name="authors" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="153">
   <si>
     <t>authors</t>
   </si>
@@ -225,9 +225,6 @@
     <t>Travel</t>
   </si>
   <si>
-    <t>4, 5</t>
-  </si>
-  <si>
     <t>Action &amp; Adventure Fiction</t>
   </si>
   <si>
@@ -442,6 +439,54 @@
   </si>
   <si>
     <t>id_user</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>books_authors</t>
+  </si>
+  <si>
+    <t>book_id</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -501,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -526,9 +571,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -544,9 +596,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -584,7 +636,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -690,7 +742,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -843,32 +895,32 @@
   <dimension ref="B2:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B2" sqref="B2:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" style="1" customWidth="1"/>
     <col min="8" max="9" width="9.6640625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="9.109375" style="1"/>
+    <col min="10" max="11" width="9.1640625" style="1"/>
     <col min="12" max="12" width="32.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.77734375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="1"/>
+    <col min="13" max="13" width="11.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -882,17 +934,17 @@
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -906,13 +958,13 @@
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -923,16 +975,16 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -946,13 +998,13 @@
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -966,13 +1018,13 @@
         <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="4">
         <v>5</v>
       </c>
@@ -986,38 +1038,38 @@
         <v>18</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49073A0-C4C8-4814-AB53-B0BF9794C59A}">
-  <dimension ref="B2:G14"/>
+  <dimension ref="B2:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="8"/>
-    <col min="2" max="2" width="7.44140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="8"/>
+    <col min="2" max="2" width="7.5" style="8" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="38" style="8" customWidth="1"/>
-    <col min="5" max="5" width="10" style="8" customWidth="1"/>
-    <col min="6" max="6" width="12" style="8" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="8"/>
+    <col min="5" max="5" width="12" style="8" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
@@ -1025,9 +1077,8 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1038,16 +1089,18 @@
         <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="7">
         <v>1</v>
       </c>
@@ -1055,15 +1108,21 @@
       <c r="D4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="I4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="J4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="7">
         <v>2</v>
       </c>
@@ -1071,15 +1130,21 @@
       <c r="D5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="I5" s="12">
         <v>1</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="J5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="7">
         <v>3</v>
       </c>
@@ -1087,15 +1152,21 @@
       <c r="D6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E6" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="I6" s="12">
+        <v>2</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="7">
         <v>4</v>
       </c>
@@ -1103,15 +1174,21 @@
       <c r="D7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="7">
-        <v>2</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E7" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="I7" s="12">
+        <v>3</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
         <v>5</v>
       </c>
@@ -1119,15 +1196,21 @@
       <c r="D8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="7">
-        <v>2</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="I8" s="12">
+        <v>4</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
         <v>6</v>
       </c>
@@ -1135,15 +1218,21 @@
       <c r="D9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="7">
-        <v>3</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="I9" s="12">
+        <v>5</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
         <v>7</v>
       </c>
@@ -1151,15 +1240,12 @@
       <c r="D10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="7">
-        <v>3</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
         <v>8</v>
       </c>
@@ -1167,15 +1253,12 @@
       <c r="D11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="7">
-        <v>3</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
         <v>11</v>
       </c>
@@ -1184,108 +1267,273 @@
         <v>25</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D14" s="7"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E16" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E18" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E19" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="7">
+        <v>2</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E20" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="7">
+        <v>3</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E21" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="7">
+        <v>4</v>
+      </c>
+      <c r="G21" s="7">
+        <v>2</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E22" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="7">
+        <v>5</v>
+      </c>
+      <c r="G22" s="7">
+        <v>2</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E23" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" s="7">
+        <v>6</v>
+      </c>
+      <c r="G23" s="7">
+        <v>3</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E24" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="7">
+        <v>7</v>
+      </c>
+      <c r="G24" s="7">
+        <v>3</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E25" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" s="7">
+        <v>8</v>
+      </c>
+      <c r="G25" s="7">
+        <v>3</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E26" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="7">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E27" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>152</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E18:G27" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA527BFE-0F78-264C-8F92-B992604727CD}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="B2:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.77734375" style="1"/>
-    <col min="3" max="3" width="8.109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.77734375" style="1"/>
-    <col min="6" max="6" width="11.44140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.77734375" style="1"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="8.1640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="D3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H4" s="1">
+        <v>100</v>
+      </c>
+      <c r="I4" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="1">
-        <v>100</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="H5" s="1">
         <v>101</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I5" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1303,14 +1551,14 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.33203125" customWidth="1"/>
-    <col min="2" max="2" width="50.44140625" customWidth="1"/>
-    <col min="3" max="3" width="57.44140625" customWidth="1"/>
+    <col min="2" max="2" width="50.5" customWidth="1"/>
+    <col min="3" max="3" width="57.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1321,274 +1569,274 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>64</v>
       </c>

--- a/how-to/tables.xlsx
+++ b/how-to/tables.xlsx
@@ -8,27 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/murkaliza/Git/django/how-to/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6663C750-1894-1D46-ADD4-FE5A8471B992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FDC59B-77AA-A044-A75D-ADD16A2FAA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" activeTab="1" xr2:uid="{DDAC1375-24C2-44EE-9C01-4C0D3328C2F3}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" activeTab="2" xr2:uid="{DDAC1375-24C2-44EE-9C01-4C0D3328C2F3}"/>
   </bookViews>
   <sheets>
     <sheet name="authors" sheetId="1" r:id="rId1"/>
     <sheet name="books" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
-    <sheet name="category" sheetId="2" r:id="rId4"/>
+    <sheet name="reviews" sheetId="5" r:id="rId3"/>
+    <sheet name="categories" sheetId="6" r:id="rId4"/>
+    <sheet name="profiles" sheetId="4" r:id="rId5"/>
+    <sheet name="category" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="170">
   <si>
     <t>authors</t>
   </si>
@@ -96,9 +108,6 @@
     <t>title</t>
   </si>
   <si>
-    <t>category</t>
-  </si>
-  <si>
     <t>Three Comrades</t>
   </si>
   <si>
@@ -480,13 +489,67 @@
     <t>10</t>
   </si>
   <si>
-    <t>head</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>false</t>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>- Python</t>
+  </si>
+  <si>
+    <t>- C++</t>
+  </si>
+  <si>
+    <t>- American Literature</t>
+  </si>
+  <si>
+    <t>- War Literature</t>
+  </si>
+  <si>
+    <t>parent_id</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>murkaliza</t>
   </si>
 </sst>
 </file>
@@ -520,7 +583,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,6 +593,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -576,6 +645,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -934,10 +1009,10 @@
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
@@ -958,10 +1033,10 @@
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
@@ -975,13 +1050,13 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
@@ -998,10 +1073,10 @@
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
@@ -1018,10 +1093,10 @@
         <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
@@ -1038,10 +1113,10 @@
         <v>18</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1054,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49073A0-C4C8-4814-AB53-B0BF9794C59A}">
   <dimension ref="B2:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1065,7 +1140,7 @@
     <col min="3" max="3" width="7.6640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="38" style="8" customWidth="1"/>
     <col min="5" max="5" width="12" style="8" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="8" customWidth="1"/>
     <col min="7" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
@@ -1089,10 +1164,10 @@
         <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>0</v>
@@ -1106,10 +1181,10 @@
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F4" s="7"/>
       <c r="I4" s="11" t="s">
@@ -1128,10 +1203,10 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F5" s="7"/>
       <c r="I5" s="12">
@@ -1150,10 +1225,10 @@
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F6" s="7"/>
       <c r="I6" s="12">
@@ -1172,10 +1247,10 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F7" s="7"/>
       <c r="I7" s="12">
@@ -1194,10 +1269,10 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F8" s="7"/>
       <c r="I8" s="12">
@@ -1216,10 +1291,10 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F9" s="7"/>
       <c r="I9" s="12">
@@ -1238,10 +1313,10 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7"/>
     </row>
@@ -1251,10 +1326,10 @@
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F11" s="7"/>
     </row>
@@ -1264,10 +1339,10 @@
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F12" s="7"/>
     </row>
@@ -1282,40 +1357,34 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E16" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E17" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>140</v>
-      </c>
       <c r="G17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E18" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E19" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="F18" s="7">
-        <v>1</v>
-      </c>
-      <c r="G18" s="7">
-        <v>1</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E19" s="8" t="s">
-        <v>143</v>
       </c>
       <c r="F19" s="7">
         <v>2</v>
@@ -1323,13 +1392,10 @@
       <c r="G19" s="7">
         <v>1</v>
       </c>
-      <c r="H19" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E20" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7">
         <v>3</v>
@@ -1337,13 +1403,10 @@
       <c r="G20" s="7">
         <v>1</v>
       </c>
-      <c r="H20" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E21" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7">
         <v>4</v>
@@ -1351,13 +1414,10 @@
       <c r="G21" s="7">
         <v>2</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E22" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F22" s="7">
         <v>5</v>
@@ -1365,13 +1425,10 @@
       <c r="G22" s="7">
         <v>2</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E23" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F23" s="7">
         <v>6</v>
@@ -1379,13 +1436,10 @@
       <c r="G23" s="7">
         <v>3</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E24" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F24" s="7">
         <v>7</v>
@@ -1393,13 +1447,10 @@
       <c r="G24" s="7">
         <v>3</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E25" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7">
         <v>8</v>
@@ -1407,36 +1458,27 @@
       <c r="G25" s="7">
         <v>3</v>
       </c>
-      <c r="H25" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E26" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F26" s="7">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E27" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>137</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E27" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1449,6 +1491,416 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C42E185-927C-C74A-AE6F-8A5562A54C0D}">
+  <dimension ref="B2:M21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="L2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="7">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="7">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="7">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G15" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G16" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="14">
+        <v>1</v>
+      </c>
+      <c r="I17" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G19" s="1">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1">
+        <v>6</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1">
+        <v>7</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{997DF81C-5C0B-C340-94E0-85ED791C7A02}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="8"/>
+    <col min="2" max="2" width="28.33203125" style="8" customWidth="1"/>
+    <col min="3" max="4" width="9.83203125" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>3</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA527BFE-0F78-264C-8F92-B992604727CD}">
   <dimension ref="B2:M5"/>
   <sheetViews>
@@ -1467,10 +1919,10 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -1479,34 +1931,34 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
@@ -1514,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H4" s="1">
         <v>100</v>
@@ -1528,7 +1980,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H5" s="1">
         <v>101</v>
@@ -1543,7 +1995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EE7BF8-E82A-4AEB-BCDE-1497C60AFA8B}">
   <dimension ref="A7:C38"/>
   <sheetViews>
@@ -1560,285 +2012,285 @@
   <sheetData>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
